--- a/data/trans_orig/P19F$mañana-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19F$mañana-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65BCD3B6-D299-42FB-B868-0B40C09B5459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{045D03D3-5B7E-41E1-A867-1B9571CF3534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E40078FC-9931-426B-B0F2-954E113D3216}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{202968DF-4AFC-4A9B-9D2C-3ACBB1CD387D}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="260">
   <si>
-    <t>Población según el momento del día en que acostumbra a cepillarse los dientes en 2016</t>
+    <t>Población según el momento del día en que acostumbra a cepillarse los dientes (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -1227,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C79E0B8-EE77-4113-9C99-C00ACA5110AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B68496-2E81-4B66-BAAB-E12DED36AA61}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
